--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/24.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/24.xlsx
@@ -479,13 +479,13 @@
         <v>-0.4497530869274909</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.952516245819779</v>
+        <v>-1.942814956279736</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1333500682229791</v>
+        <v>0.1305131947823435</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1483997920239453</v>
+        <v>-0.1479325766348545</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.4758175465345917</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.095489995073923</v>
+        <v>-2.085698182552243</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06947734438999621</v>
+        <v>0.06751795985199674</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1204968129585891</v>
+        <v>-0.1207348007974073</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.538471130717739</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.30943303190691</v>
+        <v>-2.297300032271459</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05683916811509052</v>
+        <v>0.05420670140718213</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1445131440059463</v>
+        <v>-0.1437451587101284</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.6302513907195485</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.48013309440741</v>
+        <v>-2.466921119232777</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0006973989234692272</v>
+        <v>0.000523653200651092</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1694025838116669</v>
+        <v>-0.1692390584254851</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.734576173263208</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.551184874703391</v>
+        <v>-2.537431221687031</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.07547184993114668</v>
+        <v>-0.07373585275105624</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1718116631616663</v>
+        <v>-0.1723898422056661</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.8295062325480992</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.347534446887264</v>
+        <v>-2.337198766451721</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1301871521379502</v>
+        <v>-0.1249528797320425</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1472156930222183</v>
+        <v>-0.1481180027423999</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.8970602847192646</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.040735271568665</v>
+        <v>-2.029462240258758</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1824072321573907</v>
+        <v>-0.1745959748710292</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.115702015028045</v>
+        <v>-0.1166948477298629</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.9260110463444134</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.687984002684896</v>
+        <v>-1.675528332421353</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1116810425856824</v>
+        <v>-0.1048319569912297</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0730233492826928</v>
+        <v>-0.07350662520078358</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.908462963879348</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.258472895493738</v>
+        <v>-1.243920596171651</v>
       </c>
       <c r="F10" t="n">
-        <v>0.006822300664831219</v>
+        <v>0.009132096744648781</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01043254767352778</v>
+        <v>-0.01069097618561862</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.8374881929259581</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.9489193394516394</v>
+        <v>-0.9306877189404625</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07410861693435861</v>
+        <v>0.07401079371226772</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.01633552210507165</v>
+        <v>-0.01591064811061722</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.7096399736429987</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.5877735240691909</v>
+        <v>-0.565864042417015</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1484279848577932</v>
+        <v>0.1454509468004304</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02386353006179691</v>
+        <v>-0.021479271529343</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.526881778305483</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1487107822673088</v>
+        <v>-0.1213451008994071</v>
       </c>
       <c r="F13" t="n">
-        <v>0.01220403792792068</v>
+        <v>0.0100417067052849</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04480691179791193</v>
+        <v>0.04730943422572944</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.3012918341672516</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3013694824285703</v>
+        <v>0.3325677900351074</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1612847164262146</v>
+        <v>-0.1628177669216687</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1107368433909851</v>
+        <v>0.1154308980032566</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.05220690536037603</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8461002847137876</v>
+        <v>0.877486938524052</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1751522531936654</v>
+        <v>-0.1820057189323908</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1928003063885995</v>
+        <v>0.1971556298437801</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1908298541173636</v>
       </c>
       <c r="E16" t="n">
-        <v>1.548885672984144</v>
+        <v>1.577182865034046</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5079161937369396</v>
+        <v>-0.5161421046811193</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2576483423463093</v>
+        <v>0.2623350967181263</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.4126059556210326</v>
       </c>
       <c r="E17" t="n">
-        <v>2.257388609578499</v>
+        <v>2.282095543372856</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6721205022809865</v>
+        <v>-0.683371632869529</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3672030508476435</v>
+        <v>0.372649030226733</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.6183530967671783</v>
       </c>
       <c r="E18" t="n">
-        <v>3.024654101687657</v>
+        <v>3.044861167265834</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9503516466288209</v>
+        <v>-0.9619298279897268</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4774936235867958</v>
+        <v>0.483678387299885</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8244526422110086</v>
       </c>
       <c r="E19" t="n">
-        <v>3.657589329240851</v>
+        <v>3.673458591940938</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.18969148997912</v>
+        <v>-1.202049337020571</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5965050635729456</v>
+        <v>0.604030151433489</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.03947421003992</v>
       </c>
       <c r="E20" t="n">
-        <v>4.325402185589671</v>
+        <v>4.334006248989397</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.450470679496323</v>
+        <v>-1.462429933408956</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7059356679865526</v>
+        <v>0.7160158400061862</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.255867197378126</v>
       </c>
       <c r="E21" t="n">
-        <v>4.851923268085075</v>
+        <v>4.85745685034962</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.725244429964885</v>
+        <v>-1.734610638468065</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8543962779663309</v>
+        <v>0.8638384089702374</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.463588441400503</v>
       </c>
       <c r="E22" t="n">
-        <v>5.375186983289662</v>
+        <v>5.375530094591026</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.945383180871645</v>
+        <v>-1.954704857908051</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9408209046114895</v>
+        <v>0.9509083768715777</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.650735244869853</v>
       </c>
       <c r="E23" t="n">
-        <v>5.725515302366569</v>
+        <v>5.721616973963842</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.198577420556576</v>
+        <v>-2.203337177332939</v>
       </c>
       <c r="G23" t="n">
-        <v>1.049109751418006</v>
+        <v>1.060682092586548</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.812308061926888</v>
       </c>
       <c r="E24" t="n">
-        <v>6.153817489738453</v>
+        <v>6.144095029501092</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.431626646707196</v>
+        <v>-2.432536986691877</v>
       </c>
       <c r="G24" t="n">
-        <v>1.17090696316161</v>
+        <v>1.180702425803516</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.942636474495113</v>
       </c>
       <c r="E25" t="n">
-        <v>6.449220259683465</v>
+        <v>6.433599205158833</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.555448215128844</v>
+        <v>-2.557101719591798</v>
       </c>
       <c r="G25" t="n">
-        <v>1.245086166468317</v>
+        <v>1.254810086753769</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.040293859416484</v>
       </c>
       <c r="E26" t="n">
-        <v>6.619104155301146</v>
+        <v>6.597361119131334</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.60389188076115</v>
+        <v>-2.606308260351604</v>
       </c>
       <c r="G26" t="n">
-        <v>1.310964996378208</v>
+        <v>1.318440442603661</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.105410339641586</v>
       </c>
       <c r="E27" t="n">
-        <v>6.725842431035118</v>
+        <v>6.701798359074034</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.69033548803149</v>
+        <v>-2.690101150312899</v>
       </c>
       <c r="G27" t="n">
-        <v>1.320377926420297</v>
+        <v>1.329471105930476</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.138499933922565</v>
       </c>
       <c r="E28" t="n">
-        <v>6.913974007692977</v>
+        <v>6.884244508465893</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.715892899838801</v>
+        <v>-2.717231763938165</v>
       </c>
       <c r="G28" t="n">
-        <v>1.36129139402374</v>
+        <v>1.369382980543556</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.140874914976608</v>
       </c>
       <c r="E29" t="n">
-        <v>6.879798662029077</v>
+        <v>6.848016335186176</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.738268866856023</v>
+        <v>-2.738351359573159</v>
       </c>
       <c r="G29" t="n">
-        <v>1.347707106585926</v>
+        <v>1.355370899015105</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.11305898666671</v>
       </c>
       <c r="E30" t="n">
-        <v>6.816486596663003</v>
+        <v>6.782924471197284</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.638692127007958</v>
+        <v>-2.641301232946412</v>
       </c>
       <c r="G30" t="n">
-        <v>1.33087567219393</v>
+        <v>1.338710290249746</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.056963717687966</v>
       </c>
       <c r="E31" t="n">
-        <v>6.845287505304268</v>
+        <v>6.80546031348046</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.537948808735258</v>
+        <v>-2.542142066852348</v>
       </c>
       <c r="G31" t="n">
-        <v>1.292527509086213</v>
+        <v>1.300348986709211</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.975188660602734</v>
       </c>
       <c r="E32" t="n">
-        <v>6.80775696912746</v>
+        <v>6.76349269115538</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.402707474170567</v>
+        <v>-2.40855277670252</v>
       </c>
       <c r="G32" t="n">
-        <v>1.247130233795589</v>
+        <v>1.253773452609224</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.872161487204831</v>
       </c>
       <c r="E33" t="n">
-        <v>6.643492798611685</v>
+        <v>6.596629635037789</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.368956272477076</v>
+        <v>-2.373644486896984</v>
       </c>
       <c r="G33" t="n">
-        <v>1.189087481989605</v>
+        <v>1.195738001043694</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.754306258961904</v>
       </c>
       <c r="E34" t="n">
-        <v>6.342566666738766</v>
+        <v>6.299337562863141</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.330578178383496</v>
+        <v>-2.336475312622676</v>
       </c>
       <c r="G34" t="n">
-        <v>1.138734803478436</v>
+        <v>1.145763474988071</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.63027358898602</v>
       </c>
       <c r="E35" t="n">
-        <v>6.147907215066455</v>
+        <v>6.103164041320558</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.294116397409233</v>
+        <v>-2.298398718459868</v>
       </c>
       <c r="G35" t="n">
-        <v>1.079594095508089</v>
+        <v>1.085276602677905</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.506074349682959</v>
       </c>
       <c r="E36" t="n">
-        <v>5.951662151167417</v>
+        <v>5.905997687076156</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.228757344619705</v>
+        <v>-2.234834064774067</v>
       </c>
       <c r="G36" t="n">
-        <v>1.059534494787094</v>
+        <v>1.062793322126002</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.38885371749477</v>
       </c>
       <c r="E37" t="n">
-        <v>5.644059219374772</v>
+        <v>5.600681190593875</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.185122347374807</v>
+        <v>-2.189967516964488</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9533641777604861</v>
+        <v>0.9578012639087576</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.280721951883756</v>
       </c>
       <c r="E38" t="n">
-        <v>5.338627379093309</v>
+        <v>5.294255057562502</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.138838822893002</v>
+        <v>-2.14360733995791</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8798200953733241</v>
+        <v>0.8841374575781411</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.18428444645964</v>
       </c>
       <c r="E39" t="n">
-        <v>5.023905252809393</v>
+        <v>4.979281803006951</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.080813591664108</v>
+        <v>-2.084690019345471</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7985392181524368</v>
+        <v>0.8035165220943445</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.099083299157741</v>
       </c>
       <c r="E40" t="n">
-        <v>4.733365903055199</v>
+        <v>4.687902925600484</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.102848637452102</v>
+        <v>-2.103999155347738</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7594113893641746</v>
+        <v>0.7627987009350827</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.024214933387757</v>
       </c>
       <c r="E41" t="n">
-        <v>4.411172710690103</v>
+        <v>4.367470551233024</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.996636709054904</v>
+        <v>-1.999003447010266</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6796080808112869</v>
+        <v>0.6834042058476495</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9578649854742884</v>
       </c>
       <c r="E42" t="n">
-        <v>4.030070958001114</v>
+        <v>3.989837872808034</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.905596870394383</v>
+        <v>-1.908807516146291</v>
       </c>
       <c r="G42" t="n">
-        <v>0.600864767172399</v>
+        <v>0.6041235945113071</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8965099996286684</v>
       </c>
       <c r="E43" t="n">
-        <v>3.727421969380923</v>
+        <v>3.688740915308479</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.853092080997215</v>
+        <v>-1.85629834660485</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5605864204885007</v>
+        <v>0.5639211703281362</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.8387032787813444</v>
       </c>
       <c r="E44" t="n">
-        <v>3.423317312814095</v>
+        <v>3.387674618818833</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.75769107868915</v>
+        <v>-1.761266736463785</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5123113904106955</v>
+        <v>0.5145978257210585</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.781226982085277</v>
       </c>
       <c r="E45" t="n">
-        <v>3.13999060062899</v>
+        <v>3.105483824048454</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.67534582640999</v>
+        <v>-1.678629474566443</v>
       </c>
       <c r="G45" t="n">
-        <v>0.4165468361279939</v>
+        <v>0.4198918063042658</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.7238492392677448</v>
       </c>
       <c r="E46" t="n">
-        <v>2.843850506398069</v>
+        <v>2.810797937716078</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.597808512494193</v>
+        <v>-1.600445359346374</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3786483678322768</v>
+        <v>0.3819466164696396</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.6654216803345151</v>
       </c>
       <c r="E47" t="n">
-        <v>2.511556701340068</v>
+        <v>2.48127384388653</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.475090010405225</v>
+        <v>-1.479140183809406</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3150530531365666</v>
+        <v>0.3181965366762931</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.6066717909403166</v>
       </c>
       <c r="E48" t="n">
-        <v>2.21615977158742</v>
+        <v>2.188843731854609</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.369617596366072</v>
+        <v>-1.375015394158161</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2878275363853921</v>
+        <v>0.2896803374127553</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.5482514087091436</v>
       </c>
       <c r="E49" t="n">
-        <v>1.932800938344314</v>
+        <v>1.90883862907632</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.282357822212914</v>
+        <v>-1.288909057996821</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2338758393301339</v>
+        <v>0.235664398241497</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.4913894427684672</v>
       </c>
       <c r="E50" t="n">
-        <v>1.798640039366896</v>
+        <v>1.774661669569902</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.159569237815583</v>
+        <v>-1.167475398227853</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1967424362340529</v>
+        <v>0.1972081915750528</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.4373512517426566</v>
       </c>
       <c r="E51" t="n">
-        <v>1.519306558710425</v>
+        <v>1.499823676985339</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.083538693529603</v>
+        <v>-1.091747083896692</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1662595521920611</v>
+        <v>0.1663325545966066</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.3866136074811289</v>
       </c>
       <c r="E52" t="n">
-        <v>1.35860782563265</v>
+        <v>1.340961684405928</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.000638622975898</v>
+        <v>-1.009041199739078</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1430725284603401</v>
+        <v>0.143841973804249</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3407181478796639</v>
       </c>
       <c r="E53" t="n">
-        <v>1.114224976176352</v>
+        <v>1.098535299391447</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9261279887525546</v>
+        <v>-0.9356752432190066</v>
       </c>
       <c r="G53" t="n">
-        <v>0.09989744636407895</v>
+        <v>0.1002580782425334</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2998462402745841</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9681953462679367</v>
+        <v>0.9535598242046679</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9341772338777343</v>
+        <v>-0.9428572197781865</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04909361299281987</v>
+        <v>0.04931554030263799</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.2647776185823152</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8062511921686165</v>
+        <v>0.7925895221819839</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8875593583831104</v>
+        <v>-0.8969138865015625</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02040950819882757</v>
+        <v>0.0218242947989181</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.2355384924625745</v>
       </c>
       <c r="E56" t="n">
-        <v>0.6572240835295656</v>
+        <v>0.6469482650657502</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.837688495741942</v>
+        <v>-0.8475934619906667</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01454595506573824</v>
+        <v>0.01526867887073804</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2120078968678285</v>
       </c>
       <c r="E57" t="n">
-        <v>0.512702683299059</v>
+        <v>0.5033788161905161</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.803962844890042</v>
+        <v>-0.8156695104829479</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.01331906274925428</v>
+        <v>-0.01267226144498173</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.19363293353213</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4016003238213616</v>
+        <v>0.3935627590809092</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.799276090518225</v>
+        <v>-0.8101432284588586</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.02907298165015914</v>
+        <v>-0.02798086567815944</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1791722645918403</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2552027617940372</v>
+        <v>0.2477915576845847</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.7345244177345152</v>
+        <v>-0.7455565411094213</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09464520146095971</v>
+        <v>-0.09317347298532375</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1678036268213753</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1941231099589627</v>
+        <v>0.1879208256687826</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.7179514118546105</v>
+        <v>-0.7286710849380622</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.08152374926796324</v>
+        <v>-0.0806783814233271</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.1583845978350468</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0358217758464598</v>
+        <v>0.03001370454082499</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.6905171082264361</v>
+        <v>-0.7009403915474333</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1382670582730389</v>
+        <v>-0.1369573951354938</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.150382533665365</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.05129637364188045</v>
+        <v>-0.05703436263915163</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.7088100507574312</v>
+        <v>-0.7194654817248829</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1696507919871214</v>
+        <v>-0.1692127775598488</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1424075395439537</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.1454008532452188</v>
+        <v>-0.1504628399763993</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.7428189509389674</v>
+        <v>-0.7531546313745102</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1848133914112082</v>
+        <v>-0.184481960494572</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1337431426232809</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.2576070090796432</v>
+        <v>-0.2634457413951871</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.745417836540785</v>
+        <v>-0.7558951416411458</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2183857372135629</v>
+        <v>-0.2176922143703812</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1230054648674598</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.4112215888203293</v>
+        <v>-0.4160134666546916</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.7259422550561538</v>
+        <v>-0.7374401337720599</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2385621417818302</v>
+        <v>-0.2382248706728302</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1090370425108202</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.4337209299012323</v>
+        <v>-0.4409364875665031</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.7568383327078728</v>
+        <v>-0.7677682527164154</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2533188478366444</v>
+        <v>-0.2538605256783715</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.09097661118924102</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.5214537596358451</v>
+        <v>-0.5272297098834799</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.7972641442489529</v>
+        <v>-0.8082583063734954</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2677514232152769</v>
+        <v>-0.2688917207742766</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.06829475129681242</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.5532273261902002</v>
+        <v>-0.5608735980422891</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.7438570451316036</v>
+        <v>-0.7570602600176909</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3205248614611718</v>
+        <v>-0.3202868736223537</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.04105413474509103</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.6340993899456331</v>
+        <v>-0.641601117036722</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.7905464629826819</v>
+        <v>-0.8028619686294968</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3176763076358089</v>
+        <v>-0.3186370192796268</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.008763102151892356</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.744106713355149</v>
+        <v>-0.7510448618831471</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.7851165441325925</v>
+        <v>-0.7999141315339522</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3584014290355252</v>
+        <v>-0.3583926687469798</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.02797920724110408</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.7720549539113233</v>
+        <v>-0.7792690515285031</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9158215092788301</v>
+        <v>-0.9283326613698267</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4040761134634221</v>
+        <v>-0.4029080749906951</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.06925580755373789</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.8146576971559482</v>
+        <v>-0.8216557076556736</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.9823748814067214</v>
+        <v>-0.9949619559984453</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4212272983873266</v>
+        <v>-0.4204184317449631</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1140372193092711</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8680589560809339</v>
+        <v>-0.8728128726649326</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.018146059633984</v>
+        <v>-1.029438071569072</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4547675231316812</v>
+        <v>-0.4535104217254088</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1608541722935361</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8117084000123126</v>
+        <v>-0.8153775008647662</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.042804811841342</v>
+        <v>-1.054489576712884</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4693256626461318</v>
+        <v>-0.4680145394604958</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2076283396970325</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7969341733804075</v>
+        <v>-0.7992001680174978</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.110273634122232</v>
+        <v>-1.119959593157321</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4585154665810438</v>
+        <v>-0.4567780093528625</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2512311703435226</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.713177054597339</v>
+        <v>-0.7157292186602475</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.154162679734948</v>
+        <v>-1.1626017577004</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4607099188616796</v>
+        <v>-0.4595929820721344</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.289445445010501</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.5606064092416527</v>
+        <v>-0.564872669763288</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.136849429472953</v>
+        <v>-1.147006984041404</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4419030394026847</v>
+        <v>-0.4398385314021397</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3198369443927086</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.4198957345284178</v>
+        <v>-0.4261286798285071</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.162597377556128</v>
+        <v>-1.171448189083216</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4556289515053173</v>
+        <v>-0.4523526035893182</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3404997488167886</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3168017388293546</v>
+        <v>-0.3230303039851711</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.246243532684287</v>
+        <v>-1.253197741741285</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3984914295156963</v>
+        <v>-0.3960706697809697</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3500369877889257</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.1271955135996783</v>
+        <v>-0.1340314587613128</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.304660056801544</v>
+        <v>-1.310384905365997</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.375996468579066</v>
+        <v>-0.3735859291809757</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3473841990883245</v>
       </c>
       <c r="E81" t="n">
-        <v>0.032348321438188</v>
+        <v>0.02456626511364464</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.299329421221636</v>
+        <v>-1.302338580336999</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.324887485156807</v>
+        <v>-0.3233792554788983</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3320270794637444</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2449911854462218</v>
+        <v>0.2364834852204968</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.288790794101457</v>
+        <v>-1.290504890560184</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2886155104343622</v>
+        <v>-0.2875525954241807</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3041933487641837</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4273760128182638</v>
+        <v>0.418992416680266</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.229261713338928</v>
+        <v>-1.231685393169836</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2706247978581852</v>
+        <v>-0.2696261249640036</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2650400424280111</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6326193531015722</v>
+        <v>0.625539579908756</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.150965174415858</v>
+        <v>-1.154010834733493</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2462230141148281</v>
+        <v>-0.2452155809321011</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2174069271882858</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7448255089359966</v>
+        <v>0.7403198005274524</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.061418964952336</v>
+        <v>-1.066007896102062</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2101058044900196</v>
+        <v>-0.2095261653979289</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1647627683024322</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9716468999548449</v>
+        <v>0.9654738166264829</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9972805123668083</v>
+        <v>-0.9999071388823531</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1815969054669364</v>
+        <v>-0.1803631648301185</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1118234552567491</v>
       </c>
       <c r="E87" t="n">
-        <v>1.114483404688443</v>
+        <v>1.10882279823999</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9426776338630047</v>
+        <v>-0.9441493623386407</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1514454523415808</v>
+        <v>-0.1505256220443084</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.06407679068129883</v>
       </c>
       <c r="E88" t="n">
-        <v>1.214978514785689</v>
+        <v>1.211613103936144</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8886981958940192</v>
+        <v>-0.8894983022478372</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1152873613702269</v>
+        <v>-0.1140492405891363</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.02683822214623471</v>
       </c>
       <c r="E89" t="n">
-        <v>1.336990353598656</v>
+        <v>1.333512519046111</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7948988663416807</v>
+        <v>-0.7928547990144086</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1136579477007728</v>
+        <v>-0.112343904418955</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.004488379425335541</v>
       </c>
       <c r="E90" t="n">
-        <v>1.371384706476192</v>
+        <v>1.371270822725101</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6947264268725258</v>
+        <v>-0.6927466016612537</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07906210818669117</v>
+        <v>-0.07800649341696418</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.00153126135731692</v>
       </c>
       <c r="E91" t="n">
-        <v>1.41506934535618</v>
+        <v>1.415573061947544</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.5907272013570992</v>
+        <v>-0.5871252627168275</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01604789263116264</v>
+        <v>-0.01679251715752608</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.007694878666825173</v>
       </c>
       <c r="E92" t="n">
-        <v>1.43798188004681</v>
+        <v>1.439187879769901</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4644023804835877</v>
+        <v>-0.4590834252884073</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.02128800522943396</v>
+        <v>-0.02011120646816155</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.02848971426615801</v>
       </c>
       <c r="E93" t="n">
-        <v>1.407937010432091</v>
+        <v>1.410591377861363</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3566683519516166</v>
+        <v>-0.3502996221790729</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.0142783143449813</v>
+        <v>-0.01365487381016328</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.05618961053935753</v>
       </c>
       <c r="E94" t="n">
-        <v>1.409785431315182</v>
+        <v>1.410798704690272</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2162117256061998</v>
+        <v>-0.2111803998849284</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.016409984557708</v>
+        <v>-0.01642896518288981</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.08703415056813603</v>
       </c>
       <c r="E95" t="n">
-        <v>1.334045436599293</v>
+        <v>1.336394653977565</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09919325126414032</v>
+        <v>-0.09505547497450506</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.01848471289488926</v>
+        <v>-0.01889936655270733</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1182293634825756</v>
       </c>
       <c r="E96" t="n">
-        <v>1.256871674658132</v>
+        <v>1.258336102893313</v>
       </c>
       <c r="F96" t="n">
-        <v>0.02885880650091621</v>
+        <v>0.03193220773227902</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03385463914788513</v>
+        <v>-0.03375243578152153</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1487870618981024</v>
       </c>
       <c r="E97" t="n">
-        <v>1.173180258039154</v>
+        <v>1.176044872393517</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1312651195491615</v>
+        <v>0.1326492451393429</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05220598360251657</v>
+        <v>-0.0525140537496983</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1811817472517168</v>
       </c>
       <c r="E98" t="n">
-        <v>1.073726162230727</v>
+        <v>1.077891679434089</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1927930061481449</v>
+        <v>0.1935566112996902</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05750887826869696</v>
+        <v>-0.05761838187551512</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2158302377563083</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9366203462539452</v>
+        <v>0.9402427255674897</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1943523375092354</v>
+        <v>0.1951787247286897</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05018381699660802</v>
+        <v>-0.05196945581178936</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2561880244845678</v>
       </c>
       <c r="E100" t="n">
-        <v>0.841217883897789</v>
+        <v>0.8456973114406968</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2115531640682308</v>
+        <v>0.2115706846453217</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.0446750555496095</v>
+        <v>-0.0455817454140638</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2976684964865019</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6869331420833759</v>
+        <v>0.6928025354088289</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1971643901323256</v>
+        <v>0.1982827869699616</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.04842737914324485</v>
+        <v>-0.0497443425212445</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3431205519608961</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6284859569562098</v>
+        <v>0.633198992193663</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2069510924856866</v>
+        <v>0.2070372353230502</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.0807951852705998</v>
+        <v>-0.0818537201365086</v>
       </c>
     </row>
   </sheetData>
